--- a/trunk/results/FAM_timings.xlsx
+++ b/trunk/results/FAM_timings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Matlab Timings</t>
   </si>
@@ -31,6 +31,21 @@
   </si>
   <si>
     <t>N = 4096</t>
+  </si>
+  <si>
+    <t>N=4096</t>
+  </si>
+  <si>
+    <t>N=1024</t>
+  </si>
+  <si>
+    <t>N=2048</t>
+  </si>
+  <si>
+    <t>X times speed up of CUDA over Matlab</t>
+  </si>
+  <si>
+    <t>N=8192</t>
   </si>
 </sst>
 </file>
@@ -362,20 +377,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -383,63 +398,283 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
-        <v>431.54599999999999</v>
+        <v>72.270399999999995</v>
+      </c>
+      <c r="B5">
+        <v>274.46499999999997</v>
       </c>
       <c r="C5">
         <v>1183.68</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5">
+        <v>4778.3</v>
+      </c>
+      <c r="G5">
+        <v>6.8285999999999998</v>
+      </c>
+      <c r="H5">
+        <v>12.846</v>
+      </c>
+      <c r="I5">
+        <v>39.076000000000001</v>
+      </c>
+      <c r="J5">
+        <v>153.08000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
+        <v>70.710599999999999</v>
+      </c>
+      <c r="B6">
         <v>282.40300000000002</v>
       </c>
       <c r="C6">
         <v>1181.788</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6">
+        <v>4667.3</v>
+      </c>
+      <c r="G6">
+        <v>6.6563999999999997</v>
+      </c>
+      <c r="H6">
+        <v>13.346</v>
+      </c>
+      <c r="I6">
+        <v>39.357999999999997</v>
+      </c>
+      <c r="J6">
+        <v>148.94800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
+        <v>70.680800000000005</v>
+      </c>
+      <c r="B7">
         <v>279.00200000000001</v>
       </c>
       <c r="C7">
         <v>1183.0509999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="D7">
+        <v>4654.1000000000004</v>
+      </c>
+      <c r="G7">
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="H7">
+        <v>13.215999999999999</v>
+      </c>
+      <c r="I7">
+        <v>39.186</v>
+      </c>
+      <c r="J7">
+        <v>148.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
+        <v>70.051599999999993</v>
+      </c>
+      <c r="B8">
         <v>282.33600000000001</v>
       </c>
       <c r="C8">
         <v>1186.9110000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8">
+        <v>4714.5</v>
+      </c>
+      <c r="G8">
+        <v>6.6612999999999998</v>
+      </c>
+      <c r="H8">
+        <v>13.247999999999999</v>
+      </c>
+      <c r="I8">
+        <v>38.841999999999999</v>
+      </c>
+      <c r="J8">
+        <v>149.846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
+        <v>70.282200000000003</v>
+      </c>
+      <c r="B9">
         <v>278.255</v>
       </c>
       <c r="C9">
         <v>1184.498</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9">
+        <v>4644.2</v>
+      </c>
+      <c r="G9">
+        <v>6.6578999999999997</v>
+      </c>
+      <c r="H9">
+        <v>13.241</v>
+      </c>
+      <c r="I9">
+        <v>38.863</v>
+      </c>
+      <c r="J9">
+        <v>152.23599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
+        <v>69.771299999999997</v>
+      </c>
+      <c r="B10">
         <v>274.29500000000002</v>
       </c>
       <c r="C10">
         <v>1183.7529999999999</v>
+      </c>
+      <c r="D10">
+        <v>4721.2</v>
+      </c>
+      <c r="G10">
+        <v>6.6497999999999999</v>
+      </c>
+      <c r="H10">
+        <v>13.276</v>
+      </c>
+      <c r="I10">
+        <v>39.509</v>
+      </c>
+      <c r="J10">
+        <v>148.517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <f>(A5+A6+A7+A8+A9+A10)/6</f>
+        <v>70.627816666666661</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:J12" si="0">(B5+B6+B7+B8+B9+B10)/6</f>
+        <v>278.45933333333329</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1183.9468333333332</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4696.6000000000004</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>6.68025</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>13.195499999999997</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>39.139000000000003</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>150.21450000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f>A12/G12</f>
+        <v>10.572630764816685</v>
+      </c>
+      <c r="B17">
+        <f>B12/H12</f>
+        <v>21.102598107940839</v>
+      </c>
+      <c r="C17">
+        <f>C12/I12</f>
+        <v>30.249797729459953</v>
+      </c>
+      <c r="D17">
+        <f>D12/J12</f>
+        <v>31.265956349087471</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/results/FAM_timings.xlsx
+++ b/trunk/results/FAM_timings.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="22815" windowHeight="8640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="FAM" sheetId="1" r:id="rId1"/>
+    <sheet name="Energy Detect" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Matlab Timings</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t>N=8192</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Down Convert</t>
+  </si>
+  <si>
+    <t>Product Sequences</t>
+  </si>
+  <si>
+    <t>P-point FFTs</t>
+  </si>
+  <si>
+    <t>SCD</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>Channelize</t>
+  </si>
+  <si>
+    <t>Np-point FFTs</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -377,13 +404,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -659,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:9">
       <c r="A17">
         <f>A12/G12</f>
         <v>10.572630764816685</v>
@@ -675,6 +709,994 @@
       <c r="D17">
         <f>D12/J12</f>
         <v>31.265956349087471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>1024</v>
+      </c>
+      <c r="B22">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E22">
+        <v>2.1709999999999998</v>
+      </c>
+      <c r="F22">
+        <v>9.9619999999999997</v>
+      </c>
+      <c r="G22">
+        <v>13.628</v>
+      </c>
+      <c r="H22">
+        <v>41.258000000000003</v>
+      </c>
+      <c r="I22">
+        <v>68.822999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23">
+        <v>0.249</v>
+      </c>
+      <c r="C23">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.49</v>
+      </c>
+      <c r="E23">
+        <v>2.77</v>
+      </c>
+      <c r="F23">
+        <v>9.8490000000000002</v>
+      </c>
+      <c r="G23">
+        <v>13.622999999999999</v>
+      </c>
+      <c r="H23">
+        <v>41.271999999999998</v>
+      </c>
+      <c r="I23">
+        <v>69.293000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24">
+        <v>0.253</v>
+      </c>
+      <c r="C24">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E24">
+        <v>2.17</v>
+      </c>
+      <c r="F24">
+        <v>9.8190000000000008</v>
+      </c>
+      <c r="G24">
+        <v>14.294</v>
+      </c>
+      <c r="H24">
+        <v>41.820999999999998</v>
+      </c>
+      <c r="I24">
+        <v>70.182000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25">
+        <f>(B22+B23+B24)/3</f>
+        <v>0.25333333333333335</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:I25" si="1">(C22+C23+C24)/3</f>
+        <v>1.0423333333333333</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.49333333333333335</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.3703333333333334</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>9.8766666666666669</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>13.848333333333334</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>41.450333333333333</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>69.432666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>2048</v>
+      </c>
+      <c r="B27">
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D27">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="E27">
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="F27">
+        <v>42.966999999999999</v>
+      </c>
+      <c r="G27">
+        <v>54.84</v>
+      </c>
+      <c r="H27">
+        <v>178.09200000000001</v>
+      </c>
+      <c r="I27">
+        <v>286.56799999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C28">
+        <v>1.915</v>
+      </c>
+      <c r="D28">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E28">
+        <v>4.4169999999999998</v>
+      </c>
+      <c r="F28">
+        <v>41.329000000000001</v>
+      </c>
+      <c r="G28">
+        <v>53.39</v>
+      </c>
+      <c r="H28">
+        <v>177.01</v>
+      </c>
+      <c r="I28">
+        <v>279.34399999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29">
+        <v>0.626</v>
+      </c>
+      <c r="C29">
+        <v>1.889</v>
+      </c>
+      <c r="D29">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="E29">
+        <v>4.3579999999999997</v>
+      </c>
+      <c r="F29">
+        <v>39.944000000000003</v>
+      </c>
+      <c r="G29">
+        <v>54.093000000000004</v>
+      </c>
+      <c r="H29">
+        <v>176.017</v>
+      </c>
+      <c r="I29">
+        <v>276.786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30">
+        <f>(B27+B28+B29)/3</f>
+        <v>1.3126666666666666</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:I30" si="2">(C27+C28+C29)/3</f>
+        <v>1.577</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0.90333333333333332</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>4.7773333333333339</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>41.413333333333334</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>54.107666666666667</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>177.03966666666665</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>280.89933333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>4096</v>
+      </c>
+      <c r="B32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C32">
+        <v>4.2</v>
+      </c>
+      <c r="D32">
+        <v>1.7</v>
+      </c>
+      <c r="E32">
+        <v>11.4</v>
+      </c>
+      <c r="F32">
+        <v>172</v>
+      </c>
+      <c r="G32">
+        <v>243.9</v>
+      </c>
+      <c r="H32">
+        <v>774.7</v>
+      </c>
+      <c r="I32">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33">
+        <v>2.5</v>
+      </c>
+      <c r="C33">
+        <v>4.5</v>
+      </c>
+      <c r="D33">
+        <v>0.9</v>
+      </c>
+      <c r="E33">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F33">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="G33">
+        <v>215.7</v>
+      </c>
+      <c r="H33">
+        <v>787.5</v>
+      </c>
+      <c r="I33">
+        <v>1180.5999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D34">
+        <v>1.4</v>
+      </c>
+      <c r="E34">
+        <v>10.5</v>
+      </c>
+      <c r="F34">
+        <v>164.8</v>
+      </c>
+      <c r="G34">
+        <v>207.3</v>
+      </c>
+      <c r="H34">
+        <v>779.5</v>
+      </c>
+      <c r="I34">
+        <v>1168.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35">
+        <f>(B32+B33+B34)/3</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:I35" si="3">(C32+C33+C34)/3</f>
+        <v>4.4333333333333327</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>10.066666666666668</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>222.30000000000004</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>780.56666666666661</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1186.1333333333332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>8192</v>
+      </c>
+      <c r="B37">
+        <v>0.9</v>
+      </c>
+      <c r="C37">
+        <v>17.7</v>
+      </c>
+      <c r="D37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E37">
+        <v>17.8</v>
+      </c>
+      <c r="F37">
+        <v>661.4</v>
+      </c>
+      <c r="G37">
+        <v>968.3</v>
+      </c>
+      <c r="H37">
+        <v>3130.7</v>
+      </c>
+      <c r="I37">
+        <v>4799.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>13.1</v>
+      </c>
+      <c r="D38">
+        <v>1.6</v>
+      </c>
+      <c r="E38">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F38">
+        <v>657.9</v>
+      </c>
+      <c r="G38">
+        <v>836</v>
+      </c>
+      <c r="H38">
+        <v>3138.2</v>
+      </c>
+      <c r="I38">
+        <v>4665.1000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39">
+        <v>1.5</v>
+      </c>
+      <c r="C39">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D39">
+        <v>2.8</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>656.2</v>
+      </c>
+      <c r="G39">
+        <v>843.4</v>
+      </c>
+      <c r="H39">
+        <v>3163.5</v>
+      </c>
+      <c r="I39">
+        <v>4694.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40">
+        <f>(B37+B38+B39)/3</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:I40" si="4">(C37+C38+C39)/3</f>
+        <v>13.533333333333331</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>2.2333333333333329</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>17.400000000000002</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>658.5</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>882.56666666666661</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>3144.1333333333332</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>4719.5666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>1024</v>
+      </c>
+      <c r="B46">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="C46">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D46">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E46">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F46">
+        <v>1.532</v>
+      </c>
+      <c r="G46">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="H46">
+        <v>0.86</v>
+      </c>
+      <c r="I46">
+        <v>6.7510000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D47">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E47">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F47">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="G47">
+        <v>1.298</v>
+      </c>
+      <c r="H47">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="I47">
+        <v>6.2569999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48">
+        <v>1.105</v>
+      </c>
+      <c r="C48">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D48">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E48">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F48">
+        <v>1.446</v>
+      </c>
+      <c r="G48">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="H48">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="I48">
+        <v>6.2809999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49">
+        <f>(B46+B47+B48)/3</f>
+        <v>1.127</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49" si="5">(C46+C47+C48)/3</f>
+        <v>0.51000000000000012</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="6">(D46+D47+D48)/3</f>
+        <v>0.49</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="7">(E46+E47+E48)/3</f>
+        <v>0.67099999999999993</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="8">(F46+F47+F48)/3</f>
+        <v>1.4749999999999999</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49" si="9">(G46+G47+G48)/3</f>
+        <v>1.3276666666666666</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49" si="10">(H46+H47+H48)/3</f>
+        <v>0.82633333333333336</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49" si="11">(I46+I47+I48)/3</f>
+        <v>6.429666666666666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>2048</v>
+      </c>
+      <c r="B51">
+        <v>0.505</v>
+      </c>
+      <c r="C51">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D51">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F51">
+        <v>4.0780000000000003</v>
+      </c>
+      <c r="G51">
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="H51">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="I51">
+        <v>10.584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52">
+        <v>0.61</v>
+      </c>
+      <c r="C52">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D52">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E52">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F52">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="G52">
+        <v>3.5630000000000002</v>
+      </c>
+      <c r="H52">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="I52">
+        <v>10.702999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C53">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="D53">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E53">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F53">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G53">
+        <v>3.5089999999999999</v>
+      </c>
+      <c r="H53">
+        <v>1.383</v>
+      </c>
+      <c r="I53">
+        <v>10.618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54">
+        <f>(B51+B52+B53)/3</f>
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54" si="12">(C51+C52+C53)/3</f>
+        <v>0.40433333333333338</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54" si="13">(D51+D52+D53)/3</f>
+        <v>0.28466666666666662</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54" si="14">(E51+E52+E53)/3</f>
+        <v>0.38199999999999995</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54" si="15">(F51+F52+F53)/3</f>
+        <v>4.0670000000000002</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54" si="16">(G51+G52+G53)/3</f>
+        <v>3.5376666666666665</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54" si="17">(H51+H52+H53)/3</f>
+        <v>1.3863333333333332</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54" si="18">(I51+I52+I53)/3</f>
+        <v>10.635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>4096</v>
+      </c>
+      <c r="B56">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="C56">
+        <v>1.244</v>
+      </c>
+      <c r="D56">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="E56">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F56">
+        <v>14.958</v>
+      </c>
+      <c r="G56">
+        <v>13.843</v>
+      </c>
+      <c r="H56">
+        <v>6.2670000000000003</v>
+      </c>
+      <c r="I56">
+        <v>38.206000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C57">
+        <v>1.238</v>
+      </c>
+      <c r="D57">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E57">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F57">
+        <v>15.036</v>
+      </c>
+      <c r="G57">
+        <v>13.942</v>
+      </c>
+      <c r="H57">
+        <v>6.1280000000000001</v>
+      </c>
+      <c r="I57">
+        <v>38.600999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C58">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="D58">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E58">
+        <v>0.77</v>
+      </c>
+      <c r="F58">
+        <v>14.984</v>
+      </c>
+      <c r="G58">
+        <v>13.874000000000001</v>
+      </c>
+      <c r="H58">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="I58">
+        <v>38.521999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="B59">
+        <f>(B56+B57+B58)/3</f>
+        <v>0.76533333333333342</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59" si="19">(C56+C57+C58)/3</f>
+        <v>1.2383333333333335</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59" si="20">(D56+D57+D58)/3</f>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59" si="21">(E56+E57+E58)/3</f>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59" si="22">(F56+F57+F58)/3</f>
+        <v>14.992666666666667</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ref="G59" si="23">(G56+G57+G58)/3</f>
+        <v>13.886333333333333</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59" si="24">(H56+H57+H58)/3</f>
+        <v>6.19</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59" si="25">(I56+I57+I58)/3</f>
+        <v>38.443000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>8192</v>
+      </c>
+      <c r="B61">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="C61">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="D61">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E61">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F61">
+        <v>56.204000000000001</v>
+      </c>
+      <c r="G61">
+        <v>53.640999999999998</v>
+      </c>
+      <c r="H61">
+        <v>32.18</v>
+      </c>
+      <c r="I61">
+        <v>147.39400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="C62">
+        <v>3.3340000000000001</v>
+      </c>
+      <c r="D62">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E62">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="F62">
+        <v>56.396000000000001</v>
+      </c>
+      <c r="G62">
+        <v>51.79</v>
+      </c>
+      <c r="H62">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="I62">
+        <v>153.32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C63">
+        <v>3.35</v>
+      </c>
+      <c r="D63">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E63">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F63">
+        <v>56.414000000000001</v>
+      </c>
+      <c r="G63">
+        <v>51.563000000000002</v>
+      </c>
+      <c r="H63">
+        <v>32.219000000000001</v>
+      </c>
+      <c r="I63">
+        <v>145.88200000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64">
+        <f>(B61+B62+B63)/3</f>
+        <v>0.7320000000000001</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64" si="26">(C61+C62+C63)/3</f>
+        <v>3.3433333333333333</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64" si="27">(D61+D62+D63)/3</f>
+        <v>0.67233333333333345</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64" si="28">(E61+E62+E63)/3</f>
+        <v>0.84099999999999986</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64" si="29">(F61+F62+F63)/3</f>
+        <v>56.338000000000001</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64" si="30">(G61+G62+G63)/3</f>
+        <v>52.331333333333333</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64" si="31">(H61+H62+H63)/3</f>
+        <v>34.603000000000002</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ref="I64" si="32">(I61+I62+I63)/3</f>
+        <v>148.86533333333333</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +1708,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/trunk/results/FAM_timings.xlsx
+++ b/trunk/results/FAM_timings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="22815" windowHeight="8640"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="19440" windowHeight="8640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FAM" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Matlab Timings</t>
   </si>
@@ -73,6 +73,63 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>25% Overlap</t>
+  </si>
+  <si>
+    <t>50% Overlap</t>
+  </si>
+  <si>
+    <t>75% Overlap</t>
+  </si>
+  <si>
+    <t>CUDA Speedup Over Matlab</t>
+  </si>
+  <si>
+    <t>10.72x</t>
+  </si>
+  <si>
+    <t>15.57x</t>
+  </si>
+  <si>
+    <t>29.31x</t>
+  </si>
+  <si>
+    <t>6.82x</t>
+  </si>
+  <si>
+    <t>9.71x</t>
+  </si>
+  <si>
+    <t>17.29x</t>
+  </si>
+  <si>
+    <t>7.46x</t>
+  </si>
+  <si>
+    <t>16.77x</t>
+  </si>
+  <si>
+    <t>16.99x</t>
+  </si>
+  <si>
+    <t>5.12x</t>
+  </si>
+  <si>
+    <t>6.38x</t>
+  </si>
+  <si>
+    <t>10.12x</t>
+  </si>
+  <si>
+    <t>Matlab Timngs (msec)</t>
+  </si>
+  <si>
+    <t>CUDA Timngs (msec)</t>
   </si>
 </sst>
 </file>
@@ -88,15 +145,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,19 +167,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E7" headerRowCount="0" headerRowDxfId="17">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Matlab Timings" totalsRowLabel="Total" headerRowDxfId="12"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="13"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="14"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="15"/>
+    <tableColumn id="5" name="Column4" totalsRowFunction="sum" headerRowDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A11:E14" headerRowCount="0" headerRowDxfId="6">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Matlab Timings" totalsRowLabel="Total" headerRowDxfId="11"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="10"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="9"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="8"/>
+    <tableColumn id="5" name="Column4" totalsRowFunction="sum" headerRowDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A18:E21" headerRowCount="0" headerRowDxfId="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Matlab Timings" totalsRowLabel="Total" headerRowDxfId="5"/>
+    <tableColumn id="2" name="Column1" headerRowDxfId="4"/>
+    <tableColumn id="3" name="Column2" headerRowDxfId="3"/>
+    <tableColumn id="4" name="Column3" headerRowDxfId="2"/>
+    <tableColumn id="5" name="Column4" totalsRowFunction="sum" headerRowDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -1706,28 +1889,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>512</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2048</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>15.987</v>
+      </c>
+      <c r="C5">
+        <v>10.196</v>
+      </c>
+      <c r="D5">
+        <v>11.523</v>
+      </c>
+      <c r="E5">
+        <v>8.6560000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>22.818000000000001</v>
+      </c>
+      <c r="C6">
+        <v>14.17</v>
+      </c>
+      <c r="D6">
+        <v>26.37</v>
+      </c>
+      <c r="E6">
+        <v>10.817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>42.716999999999999</v>
+      </c>
+      <c r="C7">
+        <v>25.283999999999999</v>
+      </c>
+      <c r="D7">
+        <v>26.428000000000001</v>
+      </c>
+      <c r="E7">
+        <v>17.408999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>512</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2048</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1.49</v>
+      </c>
+      <c r="C12">
+        <v>1.494</v>
+      </c>
+      <c r="D12">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="E13">
+        <v>1.6930000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="C14">
+        <v>1.462</v>
+      </c>
+      <c r="D14">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="E14">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>512</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2048</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="G22" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
